--- a/Taller 2/tabla_modelos.xlsx
+++ b/Taller 2/tabla_modelos.xlsx
@@ -462,28 +462,28 @@
         <v>103</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2">
+        <v>104</v>
+      </c>
+      <c r="H2">
         <v>103</v>
       </c>
-      <c r="H2">
-        <v>104</v>
-      </c>
       <c r="I2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -535,16 +535,16 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -558,7 +558,7 @@
         <v>53</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>53</v>
@@ -567,16 +567,16 @@
         <v>53</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="H5">
         <v>54</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>53</v>
-      </c>
-      <c r="I5">
-        <v>54</v>
       </c>
       <c r="J5">
         <v>53</v>
@@ -590,16 +590,16 @@
         <v>0.9122807017543859</v>
       </c>
       <c r="C6">
-        <v>0.9181286549707602</v>
+        <v>0.8830409356725146</v>
       </c>
       <c r="D6">
         <v>0.9122807017543859</v>
       </c>
       <c r="E6">
-        <v>0.9064327485380117</v>
+        <v>0.9181286549707602</v>
       </c>
       <c r="F6">
-        <v>0.8830409356725146</v>
+        <v>0.9181286549707602</v>
       </c>
       <c r="G6">
         <v>0.9181286549707602</v>
@@ -608,10 +608,10 @@
         <v>0.9181286549707602</v>
       </c>
       <c r="I6">
-        <v>0.9064327485380117</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="J6">
-        <v>0.9181286549707602</v>
+        <v>0.9122807017543859</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,28 +622,28 @@
         <v>0.8688524590163934</v>
       </c>
       <c r="C7">
-        <v>0.8833333333333333</v>
+        <v>0.8125</v>
       </c>
       <c r="D7">
         <v>0.8688524590163934</v>
       </c>
       <c r="E7">
-        <v>0.8548387096774194</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="F7">
-        <v>0.8225806451612904</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="G7">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="H7">
         <v>0.8709677419354839</v>
       </c>
-      <c r="H7">
-        <v>0.8833333333333333</v>
-      </c>
       <c r="I7">
-        <v>0.84375</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="J7">
-        <v>0.8833333333333333</v>
+        <v>0.8688524590163934</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,7 +654,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C8">
-        <v>0.8833333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D8">
         <v>0.8833333333333333</v>
@@ -663,16 +663,16 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="F8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G8">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="H8">
         <v>0.9</v>
       </c>
-      <c r="H8">
-        <v>0.8833333333333333</v>
-      </c>
       <c r="I8">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="J8">
         <v>0.8833333333333333</v>
